--- a/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,14 @@
       </c>
       <c r="B13" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,6 +1428,17 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,14 @@
       </c>
       <c r="B14" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,6 +1447,17 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DJP9FZYK_sales_po_comparison.xlsx
@@ -562,7 +562,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
